--- a/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
+++ b/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\Stundennachweise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FCC6BF-BBF8-4BF2-92AF-6719AEDD6E10}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A671E76-3579-411B-9B85-4443D9309332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
   </bookViews>
@@ -511,8 +511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED71B0D8-667D-4529-A9C1-4C12D1464679}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,6 +770,9 @@
       <c r="A14" t="s">
         <v>10</v>
       </c>
+      <c r="B14" s="2">
+        <v>27.67</v>
+      </c>
       <c r="E14" t="s">
         <v>23</v>
       </c>
@@ -798,7 +801,7 @@
       </c>
       <c r="B19" s="5">
         <f>B4-SUM(B5:B14)</f>
-        <v>112.85000000000002</v>
+        <v>85.18</v>
       </c>
       <c r="C19" s="5">
         <f>C4-SUM(C5:C14)</f>

--- a/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
+++ b/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\Stundennachweise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A671E76-3579-411B-9B85-4443D9309332}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA3D76-3FCC-4331-8A8E-369DBB079824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>HiWi Stundenübersicht</t>
   </si>
@@ -112,6 +112,12 @@
   </si>
   <si>
     <t>Al</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>Soll bis 31.3.23</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -193,8 +199,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,7 +516,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,6 +543,9 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
         <v>14</v>
       </c>
       <c r="G2" t="s">
@@ -549,6 +556,9 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" t="s">
         <v>22</v>
@@ -571,6 +581,10 @@
         <v>400</v>
       </c>
       <c r="E4" s="5">
+        <f>(43/2)+3*43</f>
+        <v>150.5</v>
+      </c>
+      <c r="F4" s="5">
         <v>225</v>
       </c>
       <c r="G4" s="1"/>
@@ -591,7 +605,10 @@
       <c r="D5" s="2">
         <v>15.5</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2">
         <v>28</v>
       </c>
       <c r="G5" s="3"/>
@@ -612,7 +629,10 @@
       <c r="D6" s="2">
         <v>33</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2">
         <v>29.43</v>
       </c>
       <c r="G6" s="2"/>
@@ -633,7 +653,10 @@
       <c r="D7" s="2">
         <v>30</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2">
         <v>30.8</v>
       </c>
     </row>
@@ -650,10 +673,12 @@
       <c r="D8" s="2">
         <v>26.5</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
         <v>30.4</v>
       </c>
-      <c r="F8" s="7"/>
       <c r="G8" t="s">
         <v>24</v>
       </c>
@@ -671,10 +696,12 @@
       <c r="D9" s="2">
         <v>28</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
         <v>40.07</v>
       </c>
-      <c r="F9" s="7"/>
       <c r="G9" t="s">
         <v>13</v>
       </c>
@@ -695,10 +722,12 @@
       <c r="D10" s="2">
         <v>37.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
         <v>30.95</v>
       </c>
-      <c r="F10" s="7"/>
       <c r="G10" t="s">
         <v>28</v>
       </c>
@@ -719,10 +748,12 @@
       <c r="D11" s="2">
         <v>24.25</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2">
         <v>19.649999999999999</v>
       </c>
-      <c r="F11" s="7"/>
       <c r="G11" t="s">
         <v>12</v>
       </c>
@@ -743,10 +774,12 @@
       <c r="D12" s="2">
         <v>35.25</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2">
         <v>15.53</v>
       </c>
-      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -764,7 +797,9 @@
       <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -776,26 +811,26 @@
       <c r="E14" t="s">
         <v>23</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -811,8 +846,12 @@
         <f>D4-SUM(D5:D14)</f>
         <v>132.75</v>
       </c>
-      <c r="E19" s="6">
-        <f>E4-SUM(E5:E14)</f>
+      <c r="E19">
+        <f>E4-E15-E16-E17</f>
+        <v>150.5</v>
+      </c>
+      <c r="F19" s="6">
+        <f>F4-SUM(F5:F14)</f>
         <v>0.17000000000001592</v>
       </c>
     </row>

--- a/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
+++ b/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\Stundennachweise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70EA3D76-3FCC-4331-8A8E-369DBB079824}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE1C417-79C4-4DF8-8F03-10DE41035DAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="34">
   <si>
     <t>HiWi Stundenübersicht</t>
   </si>
@@ -99,25 +99,34 @@
     <t>-</t>
   </si>
   <si>
-    <t>Urlaubsprüfung</t>
-  </si>
-  <si>
-    <t>erfolgt! siehe neue Bögen kommen noch</t>
-  </si>
-  <si>
     <t>Januar</t>
   </si>
   <si>
     <t>Februar</t>
   </si>
   <si>
-    <t>Al</t>
-  </si>
-  <si>
     <t>JR</t>
   </si>
   <si>
     <t>Soll bis 31.3.23</t>
+  </si>
+  <si>
+    <t>Verträge</t>
+  </si>
+  <si>
+    <t>Vertrag 1</t>
+  </si>
+  <si>
+    <t>Vertrag 3</t>
+  </si>
+  <si>
+    <t>Vertrag 2</t>
+  </si>
+  <si>
+    <t>gesamt</t>
+  </si>
+  <si>
+    <t>geleistet gesamt</t>
   </si>
 </sst>
 </file>
@@ -141,7 +150,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +187,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -187,11 +208,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -199,6 +257,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -513,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED71B0D8-667D-4529-A9C1-4C12D1464679}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -524,12 +592,12 @@
     <col min="1" max="1" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -543,7 +611,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
         <v>14</v>
@@ -555,303 +623,520 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
+      <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B6" s="5">
         <f>262+(3*40)</f>
         <v>382</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C6" s="5">
         <f>96+(3*32)</f>
         <v>192</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D6" s="5">
         <f>304+3*32</f>
         <v>400</v>
       </c>
-      <c r="E4" s="5">
-        <f>(43/2)+3*43</f>
-        <v>150.5</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="E6" s="5">
+        <f>6*43</f>
+        <v>258</v>
+      </c>
+      <c r="F6" s="5">
         <v>225</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" t="s">
+      <c r="H6" s="1"/>
+      <c r="I6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="H7" s="3"/>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="11">
         <v>15.5</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2">
         <v>28</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="H8" s="2"/>
+      <c r="I8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="12">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2">
         <v>29.43</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="12">
         <v>30</v>
       </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2">
         <v>30.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B11" s="11">
         <v>35.58</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12">
         <v>26.5</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="2">
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2">
         <v>30.4</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="12">
+        <v>35.83</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="12">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12">
+        <v>32.5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="12">
+        <v>37.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2">
+        <v>30.95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="12">
+        <v>44.57</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="12">
+        <v>24.25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2">
+        <v>19.649999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12">
+        <v>72.17</v>
+      </c>
+      <c r="C15" s="11">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D15" s="12">
+        <v>35.25</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2">
+        <v>15.53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="12">
+        <v>48.5</v>
+      </c>
+      <c r="C16" s="12">
+        <v>28.75</v>
+      </c>
+      <c r="D16" s="12">
+        <v>37.25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="13">
+        <v>27.67</v>
+      </c>
+      <c r="C17" s="13">
+        <v>32</v>
+      </c>
+      <c r="D17" s="13">
+        <v>32.5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B19" s="11">
+        <v>27</v>
+      </c>
+      <c r="C19" s="11">
+        <v>28.75</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
+        <v>18.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="12">
+        <v>41</v>
+      </c>
+      <c r="C20" s="12">
+        <v>31.5</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8">
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="13">
+        <v>8</v>
+      </c>
+      <c r="C21" s="13">
+        <v>26</v>
+      </c>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="8"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
-        <v>35.83</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="2">
+      <c r="B25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="2">
-        <v>40.07</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2">
-        <v>32.5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2">
-        <v>37.5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="2">
-        <v>30.95</v>
-      </c>
-      <c r="G10" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2">
-        <v>44.57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2">
-        <v>24.25</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="2">
-        <v>19.649999999999999</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2">
-        <v>72.17</v>
-      </c>
-      <c r="C12" s="2">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D12" s="2">
-        <v>35.25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="2">
-        <v>15.53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2">
-        <v>48.5</v>
-      </c>
-      <c r="C13" s="2">
-        <v>28.75</v>
-      </c>
-      <c r="D13" s="2">
-        <v>37.25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="2">
-        <v>27.67</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>262</v>
+      </c>
+      <c r="C32">
+        <v>96</v>
+      </c>
+      <c r="D32">
+        <v>304</v>
+      </c>
+      <c r="E32">
+        <f>6*43</f>
+        <v>258</v>
+      </c>
+      <c r="F32">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f>3*40</f>
+        <v>120</v>
+      </c>
+      <c r="C33">
+        <v>96</v>
+      </c>
+      <c r="D33">
+        <f>3*32</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34">
+        <f>6*40</f>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="5">
+        <f>B32+B33+B34</f>
+        <v>622</v>
+      </c>
+      <c r="C35" s="5">
+        <f>C32+C33+C34</f>
+        <v>192</v>
+      </c>
+      <c r="D35" s="5">
+        <f>D32+D33+D34</f>
+        <v>400</v>
+      </c>
+      <c r="E35" s="5">
+        <f>E32+E33+E34</f>
+        <v>258</v>
+      </c>
+      <c r="F35" s="5">
+        <f>F32+F33+F34</f>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <f>SUM(B11:B27)</f>
+        <v>372.82</v>
+      </c>
+      <c r="C37">
+        <f>SUM(C15:C27)</f>
+        <v>163.1</v>
+      </c>
+      <c r="D37">
+        <f>SUM(D8:D27)</f>
+        <v>299.75</v>
+      </c>
+      <c r="E37">
+        <f>SUM(E19:E27)</f>
+        <v>59.7</v>
+      </c>
+      <c r="F37">
+        <f>SUM(F8:F15)</f>
+        <v>224.82999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <f>B35-B37</f>
+        <v>249.18</v>
+      </c>
+      <c r="C38">
+        <f t="shared" ref="C38:F38" si="0">C35-C37</f>
+        <v>28.900000000000006</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>100.25</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>198.3</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.17000000000001592</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="5">
-        <f>B4-SUM(B5:B14)</f>
-        <v>85.18</v>
-      </c>
-      <c r="C19" s="5">
-        <f>C4-SUM(C5:C14)</f>
-        <v>147.15</v>
-      </c>
-      <c r="D19" s="5">
-        <f>D4-SUM(D5:D14)</f>
-        <v>132.75</v>
-      </c>
-      <c r="E19">
-        <f>E4-E15-E16-E17</f>
-        <v>150.5</v>
-      </c>
-      <c r="F19" s="6">
-        <f>F4-SUM(F5:F14)</f>
+      <c r="B41" s="5">
+        <f>B6-SUM(B8:B21)</f>
+        <v>9.1800000000000068</v>
+      </c>
+      <c r="C41" s="5">
+        <f>C6-SUM(C8:C17)</f>
+        <v>115.15</v>
+      </c>
+      <c r="D41" s="5">
+        <f>D6-SUM(D8:D17)</f>
+        <v>100.25</v>
+      </c>
+      <c r="E41">
+        <f>6*43-SUM(E19:E24)</f>
+        <v>198.3</v>
+      </c>
+      <c r="F41" s="6">
+        <f>F6-SUM(F8:F17)</f>
         <v>0.17000000000001592</v>
       </c>
     </row>

--- a/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
+++ b/HiWi_Orga/Stundennachweise/Stundenübersicht.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Envimaster\DWA\HiWi_Orga\Stundennachweise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BE1C417-79C4-4DF8-8F03-10DE41035DAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBF9D8F-0FCB-4D5A-BFE2-D6D53DF62B48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8955" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8952" xr2:uid="{85153F1B-7004-4098-957F-C1553457F176}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -583,21 +583,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED71B0D8-667D-4529-A9C1-4C12D1464679}">
   <dimension ref="A1:I41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2022</v>
       </c>
@@ -623,18 +623,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="H5" s="4"/>
       <c r="I5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
@@ -662,7 +662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="16">
         <v>2022</v>
       </c>
@@ -676,7 +676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -720,7 +720,7 @@
         <v>29.43</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -740,7 +740,7 @@
         <v>30.8</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>30.4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -780,7 +780,7 @@
         <v>40.07</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -800,7 +800,7 @@
         <v>30.95</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -820,7 +820,7 @@
         <v>19.649999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -840,7 +840,7 @@
         <v>15.53</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -860,7 +860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="16">
         <v>2023</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -900,12 +900,14 @@
       <c r="C19" s="11">
         <v>28.75</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7">
+      <c r="D19" s="7">
+        <v>35.92</v>
+      </c>
+      <c r="E19" s="11">
         <v>18.45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -915,12 +917,14 @@
       <c r="C20" s="12">
         <v>31.5</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8">
+      <c r="D20" s="8">
+        <v>10.75</v>
+      </c>
+      <c r="E20" s="12">
         <v>41.25</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -930,64 +934,81 @@
       <c r="C21" s="13">
         <v>26</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D21" s="9">
+        <v>47.25</v>
+      </c>
+      <c r="E21" s="12">
+        <v>42.83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>43.58</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="2">
+        <v>29.25</v>
+      </c>
+      <c r="E22" s="12">
+        <v>31.33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
       <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>5</v>
       </c>
       <c r="B25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
       <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
         <v>28</v>
       </c>
@@ -997,7 +1018,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1034,7 +1055,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -1042,8 +1063,12 @@
         <f>6*40</f>
         <v>240</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C34">
+        <f>6*32</f>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
         <v>32</v>
       </c>
@@ -1053,7 +1078,7 @@
       </c>
       <c r="C35" s="5">
         <f>C32+C33+C34</f>
-        <v>192</v>
+        <v>384</v>
       </c>
       <c r="D35" s="5">
         <f>D32+D33+D34</f>
@@ -1068,13 +1093,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>33</v>
       </c>
       <c r="B37">
         <f>SUM(B11:B27)</f>
-        <v>372.82</v>
+        <v>416.4</v>
       </c>
       <c r="C37">
         <f>SUM(C15:C27)</f>
@@ -1082,40 +1107,40 @@
       </c>
       <c r="D37">
         <f>SUM(D8:D27)</f>
-        <v>299.75</v>
+        <v>422.92</v>
       </c>
       <c r="E37">
         <f>SUM(E19:E27)</f>
-        <v>59.7</v>
+        <v>133.86000000000001</v>
       </c>
       <c r="F37">
         <f>SUM(F8:F15)</f>
         <v>224.82999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B38">
         <f>B35-B37</f>
-        <v>249.18</v>
+        <v>205.60000000000002</v>
       </c>
       <c r="C38">
         <f t="shared" ref="C38:F38" si="0">C35-C37</f>
-        <v>28.900000000000006</v>
+        <v>220.9</v>
       </c>
       <c r="D38">
         <f t="shared" si="0"/>
-        <v>100.25</v>
+        <v>-22.920000000000016</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>198.3</v>
+        <v>124.13999999999999</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
         <v>0.17000000000001592</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>16</v>
       </c>
@@ -1124,16 +1149,16 @@
         <v>9.1800000000000068</v>
       </c>
       <c r="C41" s="5">
-        <f>C6-SUM(C8:C17)</f>
-        <v>115.15</v>
+        <f>C6-SUM(C8:C27)</f>
+        <v>28.900000000000006</v>
       </c>
       <c r="D41" s="5">
-        <f>D6-SUM(D8:D17)</f>
-        <v>100.25</v>
+        <f>D6-SUM(D8:D27)</f>
+        <v>-22.920000000000016</v>
       </c>
       <c r="E41">
         <f>6*43-SUM(E19:E24)</f>
-        <v>198.3</v>
+        <v>124.13999999999999</v>
       </c>
       <c r="F41" s="6">
         <f>F6-SUM(F8:F17)</f>
